--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Work\My projects\transformation-parser\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1CB193-09E4-4908-8C37-088F8495B591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474AE9A-5F33-4329-B327-AB0054B53879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="720" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Nullable</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>full_name</t>
+  </si>
+  <si>
+    <t>type_</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +527,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
